--- a/A System In BC/Reports/ClientReport.xlsx
+++ b/A System In BC/Reports/ClientReport.xlsx
@@ -1,29 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <x:workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aquila\Desktop\Programming Projects\AL Language Programming 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\Platform-ModernDev\source\Prod\Microsoft.Dynamics.Nav.CodeAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381A2461-8A27-4532-9D56-DC78E8CE9403}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="TranslationData" sheetId="2" r:id="rId2"/>
-    <sheet name="CaptionData" sheetId="3" r:id="rId3"/>
-    <sheet name="Aggregated Metadata" sheetId="4" r:id="rId4"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13525EBA-74AF-4DEE-8E74-3DBBBC87BD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <x:bookViews>
+    <x:workbookView xWindow="4491" yWindow="4491" windowWidth="24686" windowHeight="14598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Data" sheetId="1" r:id="rId1"/>
+    <x:sheet name="TranslationData" sheetId="2" r:id="rId2"/>
+    <x:sheet name="CaptionData" sheetId="3" r:id="rId3"/>
+    <x:sheet name="Aggregated Metadata" sheetId="4" r:id="rId4"/>
+  </x:sheets>
+  <x:calcPr calcId="0"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+  <si>
+    <t>TemplateColumn</t>
+  </si>
   <si>
     <t>Language</t>
   </si>
@@ -37,6 +40,9 @@
     <t>Caption</t>
   </si>
   <si>
+    <t>KeyValue</t>
+  </si>
+  <si>
     <t>Request Page Option</t>
   </si>
   <si>
@@ -168,265 +174,219 @@
   <si>
     <t>CaptionValue</t>
   </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>MiddleName</t>
-  </si>
-  <si>
-    <t>LastName___Surname</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>AccountBalance</t>
-  </si>
-  <si>
-    <t>DepositID</t>
-  </si>
-  <si>
-    <t>DepositAmount</t>
-  </si>
-  <si>
-    <t>DepositDate</t>
-  </si>
-  <si>
-    <t>WithdrawID</t>
-  </si>
-  <si>
-    <t>WithdrawAmount</t>
-  </si>
-  <si>
-    <t>WithdrawDate</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>00-01-1900  12:00:00 AM</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yy\ hh:mm:ss;@"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="3">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="164" formatCode="dd/mm/yy\ hh:mm:ss;@"/>
+  </x:numFmts>
+  <x:fonts count="2" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="3">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFC0C0C0"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </x:cellStyleXfs>
+  <x:cellXfs count="5">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:dxfs count="5">
+    <x:dxf>
+      <x:font>
+        <x:b/>
+        <x:i val="0"/>
+        <x:strike val="0"/>
+        <x:condense val="0"/>
+        <x:extend val="0"/>
+        <x:outline val="0"/>
+        <x:shadow val="0"/>
+        <x:u val="none"/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color auto="1"/>
+        <x:name val="Calibri"/>
+        <x:family val="2"/>
+        <x:scheme val="minor"/>
+      </x:font>
+      <x:numFmt numFmtId="30" formatCode="@"/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor indexed="64"/>
+          <x:bgColor rgb="FFC0C0C0"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+    <x:dxf>
+      <x:font>
+        <x:b/>
+        <x:i val="0"/>
+        <x:strike val="0"/>
+        <x:condense val="0"/>
+        <x:extend val="0"/>
+        <x:outline val="0"/>
+        <x:shadow val="0"/>
+        <x:u val="none"/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color auto="1"/>
+        <x:name val="Calibri"/>
+        <x:family val="2"/>
+        <x:scheme val="minor"/>
+      </x:font>
+      <x:numFmt numFmtId="30" formatCode="@"/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor indexed="64"/>
+          <x:bgColor rgb="FFC0C0C0"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+    <x:dxf>
+      <x:font>
+        <x:b/>
+        <x:i val="0"/>
+        <x:strike val="0"/>
+        <x:condense val="0"/>
+        <x:extend val="0"/>
+        <x:outline val="0"/>
+        <x:shadow val="0"/>
+        <x:u val="none"/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color auto="1"/>
+        <x:name val="Calibri"/>
+        <x:family val="2"/>
+        <x:scheme val="minor"/>
+      </x:font>
+      <x:numFmt numFmtId="30" formatCode="@"/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor indexed="64"/>
+          <x:bgColor rgb="FFC0C0C0"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+    <x:dxf>
+      <x:font>
+        <x:b/>
+        <x:i val="0"/>
+        <x:strike val="0"/>
+        <x:condense val="0"/>
+        <x:extend val="0"/>
+        <x:outline val="0"/>
+        <x:shadow val="0"/>
+        <x:u val="none"/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color auto="1"/>
+        <x:name val="Calibri"/>
+        <x:family val="2"/>
+        <x:scheme val="minor"/>
+      </x:font>
+      <x:numFmt numFmtId="30" formatCode="@"/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor indexed="64"/>
+          <x:bgColor rgb="FFC0C0C0"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+    <x:dxf>
+      <x:font>
+        <x:b/>
+        <x:i val="0"/>
+        <x:strike val="0"/>
+        <x:condense val="0"/>
+        <x:extend val="0"/>
+        <x:outline val="0"/>
+        <x:shadow val="0"/>
+        <x:u val="none"/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color auto="1"/>
+        <x:name val="Calibri"/>
+        <x:family val="2"/>
+        <x:scheme val="minor"/>
+      </x:font>
+      <x:numFmt numFmtId="30" formatCode="@"/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor indexed="64"/>
+          <x:bgColor rgb="FFC0C0C0"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+  </x:dxfs>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" name="Data" displayName="Data" ref="A1:L2" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:L2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="FirstName"/>
-    <tableColumn id="2" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="MiddleName"/>
-    <tableColumn id="3" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="LastName___Surname"/>
-    <tableColumn id="4" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Email"/>
-    <tableColumn id="5" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Phone"/>
-    <tableColumn id="6" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="AccountBalance"/>
-    <tableColumn id="7" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="DepositID"/>
-    <tableColumn id="8" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="DepositAmount"/>
-    <tableColumn id="9" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="DepositDate"/>
-    <tableColumn id="10" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="WithdrawID"/>
-    <tableColumn id="11" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="WithdrawAmount"/>
-    <tableColumn id="12" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="WithdrawDate"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Data" displayName="Data" ref="A1:H2" totalsRowShown="0" headerRowDxfId="4" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" mc:Ignorable="xr xr3">
+  <x:autoFilter ref="A1:H2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
+  <x:tableColumns count="8">
+    <x:tableColumn id="1" name="No" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="2" name="Deposit_ID" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="3" name="Deposit_Amount" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="4" name="C1_______________________________" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="5" name="Withdraw_ID" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="6" name="Withdraw_Amount" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="7" name="New_Balance" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="8" name="Transaction_Date" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -497,9 +457,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -537,7 +497,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -643,7 +603,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -785,110 +745,84 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.6328125" customWidth="1"/>
-    <col min="12" max="12" width="21.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:dimension ref="A1:A2"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <x:selection pane="bottomLeft"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <x:cols>
+    <x:col min="1" max="1" width="18.4609375" bestFit="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row>
+      <x:c r="A1" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c r="B1" t="str">
+        <x:v>Deposit_ID</x:v>
+      </x:c>
+      <x:c r="C1" t="str">
+        <x:v>Deposit_Amount</x:v>
+      </x:c>
+      <x:c r="D1" t="str">
+        <x:v>C1_______________________________</x:v>
+      </x:c>
+      <x:c r="E1" t="str">
+        <x:v>Withdraw_ID</x:v>
+      </x:c>
+      <x:c r="F1" t="str">
+        <x:v>Withdraw_Amount</x:v>
+      </x:c>
+      <x:c r="G1" t="str">
+        <x:v>New_Balance</x:v>
+      </x:c>
+      <x:c r="H1" t="str">
+        <x:v>Transaction_Date</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A2" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C2" s="3" t="n">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c r="D2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="E2" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F2" s="3" t="n">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c r="G2" s="3" t="n">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c r="H2" s="4">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:tableParts count="1">
+    <x:tablePart r:id="rId1"/>
+  </x:tableParts>
+</x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -899,21 +833,21 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="11.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -932,26 +866,26 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -970,183 +904,183 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" customWidth="1"/>
-    <col min="2" max="2" width="40.7265625" customWidth="1"/>
-    <col min="3" max="3" width="5.7265625" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" customWidth="1"/>
-    <col min="5" max="5" width="40.7265625" customWidth="1"/>
-    <col min="6" max="6" width="5.7265625" customWidth="1"/>
-    <col min="7" max="7" width="25.7265625" customWidth="1"/>
-    <col min="8" max="8" width="40.7265625" customWidth="1"/>
-    <col min="9" max="9" width="5.7265625" customWidth="1"/>
-    <col min="10" max="10" width="40.7265625" customWidth="1"/>
-    <col min="11" max="11" width="25.7265625" customWidth="1"/>
+    <col min="1" max="1" width="25.69140625" customWidth="1"/>
+    <col min="2" max="2" width="40.69140625" customWidth="1"/>
+    <col min="3" max="3" width="5.69140625" customWidth="1"/>
+    <col min="4" max="4" width="25.69140625" customWidth="1"/>
+    <col min="5" max="5" width="40.69140625" customWidth="1"/>
+    <col min="6" max="6" width="5.69140625" customWidth="1"/>
+    <col min="7" max="7" width="25.69140625" customWidth="1"/>
+    <col min="8" max="8" width="40.69140625" customWidth="1"/>
+    <col min="9" max="9" width="5.69140625" customWidth="1"/>
+    <col min="10" max="10" width="40.69140625" customWidth="1"/>
+    <col min="11" max="11" width="25.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="D10" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="E10" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
